--- a/outputs-r202/f__Chitinispirillaceae.xlsx
+++ b/outputs-r202/f__Chitinispirillaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -537,6 +542,11 @@
           <t>g__BOG-1184</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>g__BOG-1184(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -579,6 +589,11 @@
           <t>g__Chitinispirillum</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>g__Chitinispirillum(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -621,6 +636,11 @@
           <t>g__JAAYIG01</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>g__JAAYIG01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -661,6 +681,11 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>g__BOG-1184</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>g__BOG-1184(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/f__Chitinispirillaceae.xlsx
+++ b/outputs-r202/f__Chitinispirillaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,188 +504,47 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG081.fasta</t>
+          <t>RUG520.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2853655500894454</v>
+        <v>3.497033118789711e-12</v>
       </c>
       <c r="C2" t="n">
-        <v>7.602157893959518e-14</v>
+        <v>3.497033118789711e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>7.602157893959518e-14</v>
+        <v>3.497033118789711e-12</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2853655500894453</v>
+        <v>3.497033118789712e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>7.602157893959532e-14</v>
+        <v>3.49703311878971e-12</v>
       </c>
       <c r="G2" t="n">
-        <v>7.602157893959529e-14</v>
+        <v>0.5235838505805536</v>
       </c>
       <c r="H2" t="n">
-        <v>7.602157893959529e-14</v>
+        <v>3.497033118789711e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2146344499103646</v>
+        <v>0.4764161493949672</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2146344499103646</v>
+        <v>3.497033118789712e-12</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2853655500894454</v>
+        <v>0.5235838505805536</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>g__BOG-1184</t>
+          <t>g__JAAYIG01</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>g__BOG-1184(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>RUG441.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.962029509197189e-13</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3765813894437217</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.96202950919719e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.962029509197191e-13</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.962029509197191e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.96202950919719e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.96202950919719e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.3117093052775506</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.3117093052775506</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.3765813894437217</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>g__Chitinispirillum</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>g__Chitinispirillum(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG520.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.962029509197189e-13</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.962029509197189e-13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.962029509197189e-13</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.962029509197189e-13</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.962029509197189e-13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3765813894437217</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.3117093052775505</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3117093052775505</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.96202950919719e-13</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.3765813894437217</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>g__JAAYIG01</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
           <t>g__JAAYIG01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RUG775.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5235838505805536</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.497033118789713e-12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.497033118789714e-12</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.497033118789713e-12</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.497033118789713e-12</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.497033118789712e-12</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.497033118789712e-12</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.4764161493949673</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.497033118789712e-12</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.5235838505805536</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>g__BOG-1184</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>g__BOG-1184(reject)</t>
         </is>
       </c>
     </row>
